--- a/src/empleados.xlsx
+++ b/src/empleados.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rody\ia_pruebas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RoseWT\Documents\TF-PromptCTEC\Programa\TF-Prompting-Cybertec\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA004A55-8C78-4034-ADF1-F333070A0E3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90007EBF-56C3-4FD6-81B2-2733C06EE604}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t>ID</t>
   </si>
@@ -79,13 +79,16 @@
   </si>
   <si>
     <t>dabat74405@regapts.com</t>
+  </si>
+  <si>
+    <t>Edad</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -98,6 +101,14 @@
       <color rgb="FF374151"/>
       <name val="Segoe UI"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -120,7 +131,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -128,6 +139,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -408,10 +420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -421,7 +433,7 @@
     <col min="5" max="5" width="39.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -437,8 +449,11 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -454,8 +469,11 @@
       <c r="E2" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="F2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -471,8 +489,11 @@
       <c r="E3" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="F3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -488,8 +509,12 @@
       <c r="E4" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="F4">
+        <v>18</v>
+      </c>
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -505,28 +530,31 @@
       <c r="E5" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="F5">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
     </row>
-    <row r="8" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
     </row>
-    <row r="9" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
     </row>
-    <row r="10" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
     </row>
-    <row r="11" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
     </row>

--- a/src/empleados.xlsx
+++ b/src/empleados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RoseWT\Documents\TF-PromptCTEC\Programa\TF-Prompting-Cybertec\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90007EBF-56C3-4FD6-81B2-2733C06EE604}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{260B079E-0170-412B-AF7C-87953D599E8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="54">
   <si>
     <t>ID</t>
   </si>
@@ -45,50 +45,155 @@
     <t>Sofia</t>
   </si>
   <si>
-    <t>Mateo</t>
-  </si>
-  <si>
-    <t>Valentina</t>
-  </si>
-  <si>
     <t>Alejandro</t>
   </si>
   <si>
-    <t>Hernandez</t>
-  </si>
-  <si>
-    <t>Martinez</t>
-  </si>
-  <si>
-    <t>Lopez</t>
-  </si>
-  <si>
-    <t>Gonzalez</t>
-  </si>
-  <si>
-    <t>Ingeniero de Procesos Industriales</t>
-  </si>
-  <si>
-    <t>Supervisor de Producción</t>
-  </si>
-  <si>
-    <t>Técnico de Mantenimiento Industrial</t>
-  </si>
-  <si>
-    <t>Gerente de Control de Calidad</t>
-  </si>
-  <si>
     <t>dabat74405@regapts.com</t>
   </si>
   <si>
     <t>Edad</t>
+  </si>
+  <si>
+    <t>Cantidad de accidentes</t>
+  </si>
+  <si>
+    <t>Años de experiencia</t>
+  </si>
+  <si>
+    <t>Valeria</t>
+  </si>
+  <si>
+    <t>Javier</t>
+  </si>
+  <si>
+    <t>Gabriela</t>
+  </si>
+  <si>
+    <t>Sebastián</t>
+  </si>
+  <si>
+    <t>Isabella</t>
+  </si>
+  <si>
+    <t>Juan</t>
+  </si>
+  <si>
+    <t>Camila</t>
+  </si>
+  <si>
+    <t>Carlos</t>
+  </si>
+  <si>
+    <t>Ana</t>
+  </si>
+  <si>
+    <t>Luis</t>
+  </si>
+  <si>
+    <t>Mariana</t>
+  </si>
+  <si>
+    <t>Diego</t>
+  </si>
+  <si>
+    <t>Esteban</t>
+  </si>
+  <si>
+    <t>Rodríguez</t>
+  </si>
+  <si>
+    <t>González</t>
+  </si>
+  <si>
+    <t>Pérez</t>
+  </si>
+  <si>
+    <t>López</t>
+  </si>
+  <si>
+    <t>García</t>
+  </si>
+  <si>
+    <t>Martínez</t>
+  </si>
+  <si>
+    <t>Sánchez</t>
+  </si>
+  <si>
+    <t>Romero</t>
+  </si>
+  <si>
+    <t>Díaz</t>
+  </si>
+  <si>
+    <t>Torres</t>
+  </si>
+  <si>
+    <t>Jiménez</t>
+  </si>
+  <si>
+    <t>Ruiz</t>
+  </si>
+  <si>
+    <t>Moreno</t>
+  </si>
+  <si>
+    <t>Herrera</t>
+  </si>
+  <si>
+    <t>Castro</t>
+  </si>
+  <si>
+    <t>Ingeniero Eléctrico</t>
+  </si>
+  <si>
+    <t>Técnico de Mantenimiento</t>
+  </si>
+  <si>
+    <t>Electricista</t>
+  </si>
+  <si>
+    <t>Supervisor de Redes</t>
+  </si>
+  <si>
+    <t>Gerente de Operaciones</t>
+  </si>
+  <si>
+    <t>Especialista en Seguridad Eléctrica</t>
+  </si>
+  <si>
+    <t>Analista de Calidad de Energía</t>
+  </si>
+  <si>
+    <t>Coordinador de Proyectos Eléctricos</t>
+  </si>
+  <si>
+    <t>Inspector de Seguridad en el Trabajo</t>
+  </si>
+  <si>
+    <t>Asistente Administrativo</t>
+  </si>
+  <si>
+    <t>Responsable de Medición y Facturación</t>
+  </si>
+  <si>
+    <t>Técnico en Redes de Distribución</t>
+  </si>
+  <si>
+    <t>Jefe de Mantenimiento Preventivo</t>
+  </si>
+  <si>
+    <t>Analista de Sistemas de Potencia</t>
+  </si>
+  <si>
+    <t>Especialista en Eficiencia Energética</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -97,15 +202,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF374151"/>
-      <name val="Segoe UI"/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF374151"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -128,20 +242,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -420,10 +538,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -431,134 +549,434 @@
     <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="39.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="2">
+        <v>32</v>
+      </c>
+      <c r="G2" s="2">
+        <v>2</v>
+      </c>
+      <c r="H2" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="2">
+        <v>40</v>
+      </c>
+      <c r="G3" s="2">
+        <v>6</v>
+      </c>
+      <c r="H3" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" s="2">
+        <v>22</v>
+      </c>
+      <c r="G4" s="1">
+        <v>7</v>
+      </c>
+      <c r="H4" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="2">
+        <v>46</v>
+      </c>
+      <c r="G5" s="2">
+        <v>2</v>
+      </c>
+      <c r="H5" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="2">
+        <v>37</v>
+      </c>
+      <c r="G6" s="2">
+        <v>1</v>
+      </c>
+      <c r="H6" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" s="2">
+        <v>29</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="2">
+        <v>45</v>
+      </c>
+      <c r="G8" s="2">
+        <v>3</v>
+      </c>
+      <c r="H8" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="2">
+        <v>31</v>
+      </c>
+      <c r="G9" s="2">
+        <v>2</v>
+      </c>
+      <c r="H9" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="C10" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="2">
+        <v>50</v>
+      </c>
+      <c r="G10" s="2">
+        <v>3</v>
+      </c>
+      <c r="H10" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="2">
+        <v>48</v>
+      </c>
+      <c r="G11" s="2">
+        <v>1</v>
+      </c>
+      <c r="H11" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" s="2">
+        <v>33</v>
+      </c>
+      <c r="G12" s="2">
+        <v>6</v>
+      </c>
+      <c r="H12" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" s="2">
+        <v>28</v>
+      </c>
+      <c r="G13" s="2">
+        <v>4</v>
+      </c>
+      <c r="H13" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" s="2">
+        <v>39</v>
+      </c>
+      <c r="G14" s="2">
+        <v>5</v>
+      </c>
+      <c r="H14" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F15" s="2">
+        <v>48</v>
+      </c>
+      <c r="G15" s="2">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="H15" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F16" s="2">
+        <v>55</v>
+      </c>
+      <c r="G16" s="2">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4">
-        <v>18</v>
-      </c>
-      <c r="G4" s="3"/>
-    </row>
-    <row r="5" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="H16" s="2">
         <v>12</v>
       </c>
-      <c r="D5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B6" s="1"/>
-      <c r="C6" s="2"/>
-    </row>
-    <row r="7" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B7" s="1"/>
-      <c r="C7" s="2"/>
-    </row>
-    <row r="8" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B8" s="1"/>
-      <c r="C8" s="2"/>
-    </row>
-    <row r="9" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B9" s="1"/>
-      <c r="C9" s="2"/>
-    </row>
-    <row r="10" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B10" s="1"/>
-      <c r="C10" s="2"/>
-    </row>
-    <row r="11" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B11" s="1"/>
-      <c r="C11" s="2"/>
+    </row>
+    <row r="21" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G21" s="1"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{0CA6C085-AB21-4619-BD15-8790B675084C}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/empleados.xlsx
+++ b/src/empleados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RoseWT\Documents\TF-PromptCTEC\Programa\TF-Prompting-Cybertec\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{260B079E-0170-412B-AF7C-87953D599E8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{409757FA-E87B-4B75-AAF8-A9E9CB94E720}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="56">
   <si>
     <t>ID</t>
   </si>
@@ -48,9 +48,6 @@
     <t>Alejandro</t>
   </si>
   <si>
-    <t>dabat74405@regapts.com</t>
-  </si>
-  <si>
     <t>Edad</t>
   </si>
   <si>
@@ -187,6 +184,15 @@
   </si>
   <si>
     <t>Especialista en Eficiencia Energética</t>
+  </si>
+  <si>
+    <t>davof18796@wentcity.com</t>
+  </si>
+  <si>
+    <t>jofodey213@tsderp.com</t>
+  </si>
+  <si>
+    <t>gotamih382@grassdev.com</t>
   </si>
 </sst>
 </file>
@@ -246,17 +252,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -538,10 +543,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -554,429 +559,431 @@
     <col min="9" max="9" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2">
+        <v>32</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+      <c r="H2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="C3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3">
+        <v>40</v>
+      </c>
+      <c r="G3">
         <v>6</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F2" s="2">
-        <v>32</v>
-      </c>
-      <c r="G2" s="2">
+      <c r="H3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>2</v>
       </c>
-      <c r="H2" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="4" t="s">
+      <c r="D4" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="2">
-        <v>40</v>
-      </c>
-      <c r="G3" s="2">
-        <v>6</v>
-      </c>
-      <c r="H3" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>2</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F4" s="2">
+      <c r="F4">
         <v>22</v>
       </c>
       <c r="G4" s="1">
         <v>7</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+    <row r="5" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5">
+        <v>46</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D6" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6">
+        <v>37</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7">
+        <v>29</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8">
+        <v>45</v>
+      </c>
+      <c r="G8">
+        <v>3</v>
+      </c>
+      <c r="H8">
         <v>7</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F5" s="2">
+    </row>
+    <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9">
+        <v>31</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="H9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" t="s">
         <v>46</v>
       </c>
-      <c r="G5" s="2">
-        <v>2</v>
-      </c>
-      <c r="H5" s="2">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+      <c r="F10">
+        <v>50</v>
+      </c>
+      <c r="G10">
+        <v>3</v>
+      </c>
+      <c r="H10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11">
+        <v>48</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12">
+        <v>33</v>
+      </c>
+      <c r="G12">
+        <v>6</v>
+      </c>
+      <c r="H12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13">
+        <v>28</v>
+      </c>
+      <c r="G13">
         <v>4</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="H13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" t="s">
+        <v>50</v>
+      </c>
+      <c r="F14">
+        <v>39</v>
+      </c>
+      <c r="G14">
+        <v>5</v>
+      </c>
+      <c r="H14">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" t="s">
+        <v>51</v>
+      </c>
+      <c r="F15">
+        <v>48</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16">
         <v>14</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F6" s="2">
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" t="s">
         <v>37</v>
       </c>
-      <c r="G6" s="2">
-        <v>1</v>
-      </c>
-      <c r="H6" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+      <c r="D16" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" t="s">
+        <v>52</v>
+      </c>
+      <c r="F16">
+        <v>55</v>
+      </c>
+      <c r="G16">
         <v>5</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F7" s="2">
-        <v>29</v>
-      </c>
-      <c r="G7" s="2">
-        <v>0</v>
-      </c>
-      <c r="H7" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>6</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F8" s="2">
-        <v>45</v>
-      </c>
-      <c r="G8" s="2">
-        <v>3</v>
-      </c>
-      <c r="H8" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>7</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F9" s="2">
-        <v>31</v>
-      </c>
-      <c r="G9" s="2">
-        <v>2</v>
-      </c>
-      <c r="H9" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>8</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F10" s="2">
-        <v>50</v>
-      </c>
-      <c r="G10" s="2">
-        <v>3</v>
-      </c>
-      <c r="H10" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>9</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F11" s="2">
-        <v>48</v>
-      </c>
-      <c r="G11" s="2">
-        <v>1</v>
-      </c>
-      <c r="H11" s="2">
+      <c r="H16">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>10</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F12" s="2">
-        <v>33</v>
-      </c>
-      <c r="G12" s="2">
-        <v>6</v>
-      </c>
-      <c r="H12" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>11</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F13" s="2">
-        <v>28</v>
-      </c>
-      <c r="G13" s="2">
-        <v>4</v>
-      </c>
-      <c r="H13" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <v>12</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F14" s="2">
-        <v>39</v>
-      </c>
-      <c r="G14" s="2">
-        <v>5</v>
-      </c>
-      <c r="H14" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
-        <v>13</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F15" s="2">
-        <v>48</v>
-      </c>
-      <c r="G15" s="2">
-        <v>0</v>
-      </c>
-      <c r="H15" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
-        <v>14</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F16" s="2">
-        <v>55</v>
-      </c>
-      <c r="G16" s="2">
-        <v>5</v>
-      </c>
-      <c r="H16" s="2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="J16" s="1"/>
+    </row>
+    <row r="20" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="4:7" x14ac:dyDescent="0.25">
       <c r="G21" s="1"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{0CA6C085-AB21-4619-BD15-8790B675084C}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/empleados.xlsx
+++ b/src/empleados.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RoseWT\Documents\TF-PromptCTEC\Programa\TF-Prompting-Cybertec\src\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rodyv\CodeProyects\CbtecProyects\GPTAutoMail\GPTAutoMail\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{409757FA-E87B-4B75-AAF8-A9E9CB94E720}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{392899CA-2D01-44DD-AA8C-CC7B099DE453}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16560" yWindow="9015" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="57">
   <si>
     <t>ID</t>
   </si>
@@ -193,6 +193,9 @@
   </si>
   <si>
     <t>gotamih382@grassdev.com</t>
+  </si>
+  <si>
+    <t>najehem516@mcuma.com</t>
   </si>
 </sst>
 </file>
@@ -252,7 +255,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -262,6 +265,12 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -546,7 +555,7 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -572,7 +581,7 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
       <c r="F1" t="s">
@@ -596,9 +605,9 @@
         <v>23</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>38</v>
       </c>
       <c r="F2">
@@ -622,9 +631,9 @@
         <v>24</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E3" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>39</v>
       </c>
       <c r="F3">
@@ -650,7 +659,7 @@
       <c r="D4" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="5" t="s">
         <v>40</v>
       </c>
       <c r="F4">
@@ -676,7 +685,7 @@
       <c r="D5" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="5" t="s">
         <v>41</v>
       </c>
       <c r="F5">
@@ -702,7 +711,7 @@
       <c r="D6" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="6" t="s">
         <v>42</v>
       </c>
       <c r="F6">
@@ -728,7 +737,7 @@
       <c r="D7" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="6" t="s">
         <v>43</v>
       </c>
       <c r="F7">
@@ -754,7 +763,7 @@
       <c r="D8" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="6" t="s">
         <v>44</v>
       </c>
       <c r="F8">
@@ -780,7 +789,7 @@
       <c r="D9" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="6" t="s">
         <v>45</v>
       </c>
       <c r="F9">
@@ -806,7 +815,7 @@
       <c r="D10" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="6" t="s">
         <v>46</v>
       </c>
       <c r="F10">
@@ -832,7 +841,7 @@
       <c r="D11" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="6" t="s">
         <v>47</v>
       </c>
       <c r="F11">
@@ -858,7 +867,7 @@
       <c r="D12" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="6" t="s">
         <v>48</v>
       </c>
       <c r="F12">
@@ -884,7 +893,7 @@
       <c r="D13" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="6" t="s">
         <v>49</v>
       </c>
       <c r="F13">
@@ -910,7 +919,7 @@
       <c r="D14" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="6" t="s">
         <v>50</v>
       </c>
       <c r="F14">
@@ -936,7 +945,7 @@
       <c r="D15" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="6" t="s">
         <v>51</v>
       </c>
       <c r="F15">
@@ -962,7 +971,7 @@
       <c r="D16" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="6" t="s">
         <v>52</v>
       </c>
       <c r="F16">
